--- a/Python Working Notebooks/Production Tank Model results in Excel format/23MT Excel Results/23 Deaeration/23 MT results - Deaeration Overall.xlsx
+++ b/Python Working Notebooks/Production Tank Model results in Excel format/23MT Excel Results/23 Deaeration/23 MT results - Deaeration Overall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Thesis 2023\Capstone---CCT\Python Working Notebooks\Production Tank Model results in Excel format\23MT Excel Results\23 Deaeration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5246A1B3-58BC-49C6-A87A-20CC450A0184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37B561B-F22A-476B-BFA0-E712DCB130AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -262,7 +262,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -315,30 +315,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -352,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -386,12 +362,6 @@
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -403,9 +373,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -431,16 +398,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -455,57 +413,57 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1015,13 +973,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D30BEE9-A987-4EC0-BD42-596E701BB964}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection sqref="A1:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="29" style="5" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" style="5" customWidth="1"/>
     <col min="4" max="4" width="10" style="5" customWidth="1"/>
@@ -1030,24 +988,24 @@
     <col min="7" max="7" width="12.42578125" style="5" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" style="5" customWidth="1"/>
     <col min="9" max="10" width="9.5703125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="50.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="31" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75">
-      <c r="A1" s="20"/>
-      <c r="B1" s="38" t="s">
+      <c r="A1" s="17"/>
+      <c r="B1" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
     </row>
     <row r="2" spans="1:20" ht="25.5">
       <c r="A2" s="3" t="s">
@@ -1056,48 +1014,48 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="45" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="9">
         <v>2.144702786444886E-2</v>
       </c>
       <c r="D3" s="8">
         <v>2.1447000000000001E-2</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="15">
         <v>2.0614699461197809E-2</v>
       </c>
       <c r="F3" s="8">
@@ -1112,18 +1070,18 @@
       <c r="I3" s="9">
         <v>0.96930684411410595</v>
       </c>
-      <c r="J3" s="32">
+      <c r="J3" s="8">
         <v>0.96930700000000003</v>
       </c>
-      <c r="K3" s="5"/>
+      <c r="K3" s="49"/>
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:20" ht="15">
-      <c r="A4" s="41"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="45"/>
+      <c r="B4" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="9">
         <v>2.144710369254467E-2</v>
       </c>
       <c r="D4" s="8">
@@ -1144,28 +1102,28 @@
       <c r="I4" s="9">
         <v>0.96932473399751118</v>
       </c>
-      <c r="J4" s="32">
+      <c r="J4" s="8">
         <v>0.96932499999999999</v>
       </c>
-      <c r="K4" s="34" t="s">
+      <c r="K4" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
     </row>
     <row r="5" spans="1:20" ht="15">
-      <c r="A5" s="42"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="9">
         <v>2.2008271925826821E-2</v>
       </c>
       <c r="D5" s="8">
@@ -1186,30 +1144,30 @@
       <c r="I5" s="9">
         <v>0.97159293969014482</v>
       </c>
-      <c r="J5" s="32">
+      <c r="J5" s="8">
         <v>0.97159300000000004</v>
       </c>
-      <c r="K5" s="35" t="s">
+      <c r="K5" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
     </row>
     <row r="6" spans="1:20" ht="15">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="45" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="9">
         <v>7.3333546410211713E-3</v>
       </c>
       <c r="D6" s="8">
@@ -1230,28 +1188,28 @@
       <c r="I6" s="9">
         <v>0.96610621128960661</v>
       </c>
-      <c r="J6" s="32">
+      <c r="J6" s="8">
         <v>0.96610600000000002</v>
       </c>
-      <c r="K6" s="34" t="s">
+      <c r="K6" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-    </row>
-    <row r="7" spans="1:20" ht="15">
-      <c r="A7" s="42"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+    </row>
+    <row r="7" spans="1:20" ht="25.5">
+      <c r="A7" s="45"/>
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="21">
         <v>5.5046701558991658E-7</v>
       </c>
       <c r="D7" s="10">
@@ -1272,30 +1230,30 @@
       <c r="I7" s="9">
         <v>0.98756241908485631</v>
       </c>
-      <c r="J7" s="32">
+      <c r="J7" s="8">
         <v>0.98756200000000005</v>
       </c>
-      <c r="K7" s="35" t="s">
+      <c r="K7" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
     </row>
     <row r="8" spans="1:20" ht="15">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="32" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="21">
         <v>3.3489378051835399E-32</v>
       </c>
       <c r="D8" s="10">
@@ -1316,30 +1274,30 @@
       <c r="I8" s="9">
         <v>0.95915464707062237</v>
       </c>
-      <c r="J8" s="32">
+      <c r="J8" s="8">
         <v>0.95915499999999998</v>
       </c>
-      <c r="K8" s="35" t="s">
+      <c r="K8" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-    </row>
-    <row r="9" spans="1:20" ht="15">
-      <c r="A9" s="19" t="s">
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+    </row>
+    <row r="9" spans="1:20" ht="25.5">
+      <c r="A9" s="32" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="9">
         <v>9.1914844962590978E-3</v>
       </c>
       <c r="D9" s="8">
@@ -1360,24 +1318,24 @@
       <c r="I9" s="9">
         <v>0.96207233274375004</v>
       </c>
-      <c r="J9" s="32">
+      <c r="J9" s="8">
         <v>0.96207200000000004</v>
       </c>
-      <c r="K9" s="35" t="s">
+      <c r="K9" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-    </row>
-    <row r="10" spans="1:20" ht="25.5">
-      <c r="A10" s="22" t="s">
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+    </row>
+    <row r="10" spans="1:20" ht="51">
+      <c r="A10" s="32" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1404,16 +1362,16 @@
       <c r="I10" s="11">
         <v>0.51189799999999996</v>
       </c>
-      <c r="J10" s="33">
+      <c r="J10" s="12">
         <v>0.42666100000000001</v>
       </c>
-      <c r="K10" s="36" t="s">
+      <c r="K10" s="30" t="s">
         <v>29</v>
       </c>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:20" ht="25.5">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:20" ht="51">
+      <c r="A11" s="32" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1440,16 +1398,16 @@
       <c r="I11" s="11">
         <v>0.17263400000000001</v>
       </c>
-      <c r="J11" s="33">
+      <c r="J11" s="12">
         <v>0.98940099999999997</v>
       </c>
-      <c r="K11" s="35" t="s">
+      <c r="K11" s="29" t="s">
         <v>30</v>
       </c>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:20" ht="25.5">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:20" ht="38.25">
+      <c r="A12" s="32" t="s">
         <v>41</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1458,34 +1416,34 @@
       <c r="C12" s="11">
         <v>36.448399999999999</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="8">
         <v>1.6144400000000001</v>
       </c>
       <c r="E12" s="11">
         <v>28.858000000000001</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="8">
         <v>21.657299999999999</v>
       </c>
       <c r="G12" s="11">
         <v>0.91662999999999994</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="8">
         <v>0.99630700000000005</v>
       </c>
       <c r="I12" s="11">
         <v>0.89686200000000005</v>
       </c>
-      <c r="J12" s="31">
+      <c r="J12" s="12">
         <v>0.92259800000000003</v>
       </c>
-      <c r="K12" s="35" t="s">
+      <c r="K12" s="29" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:20" ht="38.25">
-      <c r="A13" s="22" t="s">
+    <row r="13" spans="1:20" ht="51">
+      <c r="A13" s="32" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1512,16 +1470,16 @@
       <c r="I13" s="11">
         <v>0.22675500000000001</v>
       </c>
-      <c r="J13" s="33">
+      <c r="J13" s="12">
         <v>0.93600000000000005</v>
       </c>
-      <c r="K13" s="34" t="s">
+      <c r="K13" s="28" t="s">
         <v>32</v>
       </c>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="22" t="s">
+    <row r="14" spans="1:20" ht="25.5">
+      <c r="A14" s="19" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1548,10 +1506,10 @@
       <c r="I14" s="11">
         <v>-0.40450599999999998</v>
       </c>
-      <c r="J14" s="33">
+      <c r="J14" s="27">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K14" s="34" t="s">
+      <c r="K14" s="28" t="s">
         <v>33</v>
       </c>
       <c r="L14" s="6"/>
@@ -1559,61 +1517,61 @@
     <row r="15" spans="1:20" ht="15">
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
       <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:20" ht="15">
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
     </row>
     <row r="17" spans="5:9" ht="15">
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
     </row>
     <row r="18" spans="5:9" ht="15">
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
     </row>
     <row r="19" spans="5:9" ht="15">
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
     </row>
     <row r="20" spans="5:9" ht="15">
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
     </row>
     <row r="21" spans="5:9" ht="15">
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
     </row>
     <row r="22" spans="5:9" ht="15">
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1651,19 +1609,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75">
-      <c r="A1" s="20"/>
-      <c r="B1" s="38" t="s">
+      <c r="A1" s="17"/>
+      <c r="B1" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:20" ht="25.5">
@@ -1673,28 +1631,28 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="14" t="s">
         <v>16</v>
       </c>
       <c r="K2" s="3" t="s">
@@ -1703,7 +1661,7 @@
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:20" ht="15">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="45" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1715,7 +1673,7 @@
       <c r="D3" s="8">
         <v>2.1447000000000001E-2</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="15">
         <v>2.0614699461197809E-2</v>
       </c>
       <c r="F3" s="8">
@@ -1737,7 +1695,7 @@
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:20" ht="15">
-      <c r="A4" s="43"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1765,7 +1723,7 @@
       <c r="J4" s="8">
         <v>0.96932499999999999</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="20" t="s">
         <v>24</v>
       </c>
       <c r="L4"/>
@@ -1779,13 +1737,13 @@
       <c r="T4"/>
     </row>
     <row r="5" spans="1:20" ht="25.5">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="23" t="s">
         <v>36</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="21">
         <v>5.5046701558991658E-7</v>
       </c>
       <c r="D5" s="10">
@@ -1809,7 +1767,7 @@
       <c r="J5" s="8">
         <v>0.98756200000000005</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="22" t="s">
         <v>26</v>
       </c>
       <c r="L5"/>
@@ -1823,7 +1781,7 @@
       <c r="T5"/>
     </row>
     <row r="6" spans="1:20" ht="15">
-      <c r="A6" s="21"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1833,7 +1791,7 @@
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="21"/>
+      <c r="K6" s="18"/>
     </row>
     <row r="7" spans="1:20" ht="15">
       <c r="E7"/>
@@ -1917,89 +1875,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15">
-      <c r="A1" s="44"/>
-      <c r="B1" s="45" t="s">
+      <c r="A1" s="33"/>
+      <c r="B1" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:20" ht="42.75">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="J2" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="47" t="s">
+      <c r="K2" s="34" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:20" ht="30">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="51">
+      <c r="C3" s="38">
         <v>5.5046701558991658E-7</v>
       </c>
-      <c r="D3" s="52">
+      <c r="D3" s="39">
         <v>5.50467E-7</v>
       </c>
-      <c r="E3" s="55">
+      <c r="E3" s="42">
         <v>8.3535558722995576E-3</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="40">
         <v>8.3535599999999995E-3</v>
       </c>
-      <c r="G3" s="55">
+      <c r="G3" s="42">
         <v>0.99999947546245616</v>
       </c>
-      <c r="H3" s="53">
+      <c r="H3" s="40">
         <v>0.99999899999999997</v>
       </c>
-      <c r="I3" s="55">
+      <c r="I3" s="42">
         <v>0.98756241908485631</v>
       </c>
-      <c r="J3" s="53">
+      <c r="J3" s="40">
         <v>0.98756200000000005</v>
       </c>
-      <c r="K3" s="54" t="s">
+      <c r="K3" s="41" t="s">
         <v>26</v>
       </c>
       <c r="L3"/>
@@ -2013,7 +1971,7 @@
       <c r="T3"/>
     </row>
     <row r="4" spans="1:20" ht="15">
-      <c r="A4" s="21"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -2023,7 +1981,7 @@
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="21"/>
+      <c r="K4" s="18"/>
     </row>
     <row r="5" spans="1:20" ht="15">
       <c r="E5"/>
@@ -2106,19 +2064,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75">
-      <c r="A1" s="20"/>
-      <c r="B1" s="38" t="s">
+      <c r="A1" s="17"/>
+      <c r="B1" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
     </row>
     <row r="2" spans="1:12" ht="25.5">
       <c r="A2" s="3" t="s">
@@ -2127,28 +2085,28 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="14" t="s">
         <v>16</v>
       </c>
       <c r="K2" s="3" t="s">
@@ -2156,7 +2114,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="38.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2186,13 +2144,13 @@
       <c r="J3" s="12">
         <v>0.42666100000000001</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="16" t="s">
         <v>29</v>
       </c>
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12" ht="51">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="24" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -2219,16 +2177,16 @@
       <c r="I4" s="11">
         <v>0.22675500000000001</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="27">
         <v>0.93600000000000005</v>
       </c>
-      <c r="K4" s="34" t="s">
+      <c r="K4" s="28" t="s">
         <v>32</v>
       </c>
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12" ht="38.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="23" t="s">
         <v>43</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -2258,7 +2216,7 @@
       <c r="J5" s="12">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K5" s="28" t="s">
+      <c r="K5" s="25" t="s">
         <v>33</v>
       </c>
       <c r="L5" s="6"/>
@@ -2266,61 +2224,61 @@
     <row r="6" spans="1:12" ht="15">
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:12" ht="15">
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
     </row>
     <row r="8" spans="1:12" ht="15">
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
     </row>
     <row r="9" spans="1:12" ht="15">
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
     </row>
     <row r="10" spans="1:12" ht="15">
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
     </row>
     <row r="11" spans="1:12" ht="15">
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
     </row>
     <row r="12" spans="1:12" ht="15">
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:12" ht="15">
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2334,7 +2292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9A7B74-5857-469C-A25A-02DA5EB6902F}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:K3"/>
     </sheetView>
   </sheetViews>
@@ -2355,19 +2313,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75">
-      <c r="A1" s="20"/>
-      <c r="B1" s="38" t="s">
+      <c r="A1" s="17"/>
+      <c r="B1" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
     </row>
     <row r="2" spans="1:12" ht="25.5">
       <c r="A2" s="3" t="s">
@@ -2376,36 +2334,36 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="14" t="s">
         <v>16</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="38.25">
-      <c r="A3" s="37" t="s">
+    <row r="3" spans="1:12" ht="51">
+      <c r="A3" s="31" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2435,7 +2393,7 @@
       <c r="J3" s="12">
         <v>0.42666100000000001</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="16" t="s">
         <v>29</v>
       </c>
       <c r="L3" s="6"/>
@@ -2443,61 +2401,61 @@
     <row r="4" spans="1:12" ht="15">
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:12" ht="15">
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
     </row>
     <row r="6" spans="1:12" ht="15">
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
     </row>
     <row r="7" spans="1:12" ht="15">
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
     </row>
     <row r="8" spans="1:12" ht="15">
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
     </row>
     <row r="9" spans="1:12" ht="15">
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
     </row>
     <row r="10" spans="1:12" ht="15">
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
     </row>
     <row r="11" spans="1:12" ht="15">
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
